--- a/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,12 +1321,667 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C45">
+        <f>SUM(C2:C44)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Judul Lagu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Penyanyi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jumlah Pengguna</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bojomu Cemburu (Koplo)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>O.M. New Cobra</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1808599A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bojomu Geleman</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nella Kharisma</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1808733A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Judul Lagu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Penyanyi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jumlah Pengguna</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hurricane</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Martin Garrix - Sentinel - Bonn</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20010139B</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Be Who You Are (Real Magic)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jon Batiste - JID - 뉴진스 - Cat Burns - Camilo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20010141A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Love At First Fight</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LANY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20010144A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>One On One</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Knocks - Sofi Tukker</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20010481A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>You Broke My Heart</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20010483A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ocean Avenue</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Steve Aoki - Yellowcard</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20010475A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Machine Gun Kelly</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20010136A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lilith (Ost. Diablo IV)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Halsey - 슈가</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20010128A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Self Destruction Mode</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chainsmokers - Bludnymph</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20010134A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Apartment We Won't Share</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NIKI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20010147A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Motion</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ty Dolla Sign</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20010140A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Foo Fighters</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20010135A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sold Out</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Shenseea</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20010151A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Loneliness</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Putri Ariani</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20010155A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Glo'd Up</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Juice Wrld</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20010152A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Home To Another One</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Madison Beer</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20010153A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vulgar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sam Smith - Madonna</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20010154B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Run For The Hills</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tate McRae</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20010460B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Orbit</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Henry Moodie</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20010443A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Doja Cat</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20010158A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Terminator</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>King Promise - Young Jonn</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20010467A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Eras Of Us</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fletcher</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20010477A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rise Up</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sum 41</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20010472A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Way You Move</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GAC</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20010480A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Beep Beep</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>제시카 정</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20010479A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C27">
+        <f>SUM(C2:C26)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1365,643 +2020,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bojomu Cemburu (Koplo)</t>
+          <t>別知己</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O.M. New Cobra</t>
+          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1808599A</t>
+          <t>30005296A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bojomu Geleman</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nella Kharisma</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1808733A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Judul Lagu</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Penyanyi</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jumlah Pengguna</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Hurricane</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Martin Garrix - Sentinel - Bonn</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20010139B</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Be Who You Are (Real Magic)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Jon Batiste - JID - 뉴진스 - Cat Burns - Camilo</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20010141A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Love At First Fight</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LANY</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20010144A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>One On One</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Knocks - Sofi Tukker</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20010481A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>You Broke My Heart</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Drake</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20010483A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ocean Avenue</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Steve Aoki - Yellowcard</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20010475A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Pressure</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Machine Gun Kelly</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20010136A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lilith (Ost. Diablo IV)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Halsey - 슈가</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20010128A</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Self Destruction Mode</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Chainsmokers - Bludnymph</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20010134A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Apartment We Won't Share</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NIKI</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20010147A</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Motion</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ty Dolla Sign</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20010140A</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Foo Fighters</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20010135A</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sold Out</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Shenseea</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20010151A</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Loneliness</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Putri Ariani</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20010155A</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Glo'd Up</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Juice Wrld</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>20010152A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Home To Another One</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Madison Beer</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20010153A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Vulgar</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sam Smith - Madonna</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20010154B</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Run For The Hills</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Tate McRae</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20010460B</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Orbit</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Henry Moodie</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20010443A</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Attention</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Doja Cat</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20010158A</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Terminator</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>King Promise - Young Jonn</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20010467A</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Eras Of Us</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Fletcher</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20010477A</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Rise Up</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sum 41</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20010472A</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Way You Move</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>GAC</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20010480A</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Beep Beep</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>제시카 정</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20010479A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Judul Lagu</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Penyanyi</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jumlah Pengguna</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>別知己</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30005296A</t>
-        </is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C3">
+        <f>SUM(C2:C2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2063,6 +2107,17 @@
         <is>
           <t>40000257A</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C3">
+        <f>SUM(C2:C2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2076,7 +2131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2264,6 +2319,17 @@
         <is>
           <t>50003105A</t>
         </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,6 +2393,17 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C3">
+        <f>SUM(C2:C2)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Jepang" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Korea" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Lain-Lain" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Total" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2407,4 +2408,65 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
@@ -62,10 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2021,12 +2024,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>別知己</t>
+          <t>Bie Zhi Ji</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
+          <t>311380.0 - 311381 - 311468.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2093,12 +2096,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kizuna no Kiseki (Ost. Demon Slayer: Kimetsu no Yaiba)</t>
+          <t>Kizuna No Kiseki (Ost.  Demon Slayer: Kimetsu No Yaiba)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man with a Mission - ミレイ</t>
+          <t>430212.0 - 420498</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2165,12 +2168,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MEGAVERSE</t>
+          <t>Megaverse</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>스트레이 키즈</t>
+          <t>530310.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2190,7 +2193,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2205,12 +2208,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>One and Only</t>
+          <t>One And Only</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>보이넥스트도어</t>
+          <t>530448.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2230,7 +2233,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>에이티즈</t>
+          <t>530351.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2245,12 +2248,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hmm-cheat</t>
+          <t>Hmm-Cheat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>크러쉬</t>
+          <t>510742.0</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2270,7 +2273,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>화사</t>
+          <t>520180.0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2290,7 +2293,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>윈터</t>
+          <t>520212.0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2310,7 +2313,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>520122.0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2416,7 +2419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,46 +2428,162 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <f>='Indonesia Pop'!C45</f>
+        <v/>
+      </c>
+      <c r="B2" s="2">
+        <f>='Indonesia Daerah'!C4</f>
+        <v/>
+      </c>
+      <c r="C2" s="2">
+        <f>='English'!C27</f>
+        <v/>
+      </c>
+      <c r="D2" s="2">
+        <f>='Mandarin'!C3</f>
+        <v/>
+      </c>
+      <c r="E2" s="2">
+        <f>='Jepang'!C3</f>
+        <v/>
+      </c>
+      <c r="F2" s="2">
+        <f>='Korea'!C10</f>
+        <v/>
+      </c>
+      <c r="G2" s="2">
+        <f>='Lain-Lain'!C3</f>
+        <v/>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(A2:G2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <f>A2/H2</f>
+        <v/>
+      </c>
+      <c r="B4" s="2">
+        <f>B2/H2</f>
+        <v/>
+      </c>
+      <c r="C4" s="2">
+        <f>C2/H2</f>
+        <v/>
+      </c>
+      <c r="D4" s="2">
+        <f>D2/H2</f>
+        <v/>
+      </c>
+      <c r="E4" s="2">
+        <f>E2/H2</f>
+        <v/>
+      </c>
+      <c r="F4" s="2">
+        <f>F2/H2</f>
+        <v/>
+      </c>
+      <c r="G4" s="2">
+        <f>G2/H2</f>
+        <v/>
+      </c>
+      <c r="H4" s="2">
+        <f>H2/H2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>311380.0 - 311381 - 311468.0</t>
+          <t>Hai Lai A Mu - A Ga La Gu - Qu Biaqie</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>430212.0 - 420498</t>
+          <t>Man with a Mission - Milet</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>530310.0</t>
+          <t>Stray Kids</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>530448.0</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>530351.0</t>
+          <t>ATEEZ</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510742.0</t>
+          <t>Crush</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>520180.0</t>
+          <t>Hwasa</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>520212.0</t>
+          <t>Winter</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>520122.0</t>
+          <t>Jimin</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>孙艺琪</t>
+          <t>Sun Yiqi</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
@@ -36,12 +36,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccccff"/>
+        <bgColor rgb="00ccccff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -62,10 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2419,7 +2428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2430,162 +2439,198 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Kategori Bahasa</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
+    <row r="3">
+      <c r="A3" s="3">
         <f>='Indonesia Pop'!C45</f>
         <v/>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3">
         <f>='Indonesia Daerah'!C4</f>
         <v/>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="3">
         <f>='English'!C27</f>
         <v/>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="3">
         <f>='Mandarin'!C3</f>
         <v/>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="3">
         <f>='Jepang'!C3</f>
         <v/>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
         <f>='Korea'!C10</f>
         <v/>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="3">
         <f>='Lain-Lain'!C3</f>
         <v/>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(A2:G2)</f>
+      <c r="H3" s="3">
+        <f>SUM(A3:G3)</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Prosentase</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <f>A2/H2</f>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>A3/H3</f>
         <v/>
       </c>
-      <c r="B4" s="2">
-        <f>B2/H2</f>
+      <c r="B7">
+        <f>B3/H3</f>
         <v/>
       </c>
-      <c r="C4" s="2">
-        <f>C2/H2</f>
+      <c r="C7">
+        <f>C3/H3</f>
         <v/>
       </c>
-      <c r="D4" s="2">
-        <f>D2/H2</f>
+      <c r="D7">
+        <f>D3/H3</f>
         <v/>
       </c>
-      <c r="E4" s="2">
-        <f>E2/H2</f>
+      <c r="E7">
+        <f>E3/H3</f>
         <v/>
       </c>
-      <c r="F4" s="2">
-        <f>F2/H2</f>
+      <c r="F7">
+        <f>F3/H3</f>
         <v/>
       </c>
-      <c r="G4" s="2">
-        <f>G2/H2</f>
+      <c r="G7">
+        <f>G3/H3</f>
         <v/>
       </c>
-      <c r="H4" s="2">
-        <f>H2/H2</f>
+      <c r="H7">
+        <f>H3/H3</f>
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP037.xlsx
@@ -2539,7 +2539,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Prosentase</t>
+          <t>Persentase</t>
         </is>
       </c>
       <c r="B5" s="3" t="n"/>
